--- a/conditionFiles/testBlocks.xlsx
+++ b/conditionFiles/testBlocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44797\Documents\GitHub\OSARI-1\conditionFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonhe/Documents/Documents - Jason's iCloud/Work/GitHub/teamOSTAP/OSARI/conditionFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{864E086E-9413-468B-834B-FCBA7D6DF474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849333EC-9953-C347-BC2C-169E451D0A5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testBlocks" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={9C510D63-20AA-4AE6-83D4-5FAE4066A7FE}</author>
     <author>tc={F3EA8043-E92A-49A6-B4E8-F130B1F7D2C4}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -36,7 +36,7 @@
 The order of trials can be either sequential or random and is set at experiment startup.</t>
       </text>
     </comment>
-    <comment ref="B1" authorId="1" shapeId="0">
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="3">
   <si>
     <t>Signal</t>
   </si>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,12 +211,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -945,19 +939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,39 +959,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1005,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1013,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1021,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1037,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -1045,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -1053,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -1069,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -1077,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -1093,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -1109,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -1117,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -1133,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -1157,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -1165,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -1181,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -1189,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -1197,7 +1191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -1205,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -1221,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -1229,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -1245,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -1253,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -1269,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -1277,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -1285,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -1293,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -1301,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -1309,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -1317,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -1341,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -1357,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -1381,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -1389,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -1413,7 +1407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -1421,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -1437,7 +1431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1461,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1469,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1477,7 +1471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1517,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1525,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -1541,7 +1535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1</v>
       </c>
@@ -1565,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -1573,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -1581,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -1589,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1</v>
       </c>
@@ -1597,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1</v>
       </c>
